--- a/doc/OpenGL ES Hardware Matrix.xlsx
+++ b/doc/OpenGL ES Hardware Matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\G-Truc\website\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe\Documents\GitHub\website\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="0" windowWidth="18435" windowHeight="18810"/>
+    <workbookView xWindow="19230" yWindow="0" windowWidth="18440" windowHeight="18810"/>
   </bookViews>
   <sheets>
     <sheet name="2015-07" sheetId="12" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>C.I. / Sea Islands: Radeon HD 7790, Radeon R7 240, Radeon R7 250, Radeon R7 260, Radeon R9 270</t>
   </si>
   <si>
-    <t>Extensions exposed by OpenGL implementations</t>
-  </si>
-  <si>
     <t>IVB / Ivy Bridge: HD4000, HD2500</t>
   </si>
   <si>
@@ -818,6 +815,9 @@
   </si>
   <si>
     <t>Architecture</t>
+  </si>
+  <si>
+    <t>Extensions exposed by OpenGL ES implementations</t>
   </si>
 </sst>
 </file>
@@ -1050,21 +1050,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,7 +1066,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2267,11 +2267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="223851568"/>
-        <c:axId val="223852128"/>
+        <c:axId val="637504192"/>
+        <c:axId val="637504736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223851568"/>
+        <c:axId val="637504192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223852128"/>
+        <c:crossAx val="637504736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223852128"/>
+        <c:axId val="637504736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2301,7 +2301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223851568"/>
+        <c:crossAx val="637504192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,103 +2649,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:XFD217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:24" ht="34.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -2769,7 +2769,7 @@
       <c r="U5" s="22"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -2795,7 +2795,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -2821,7 +2821,7 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2847,7 +2847,7 @@
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -2873,7 +2873,7 @@
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2899,7 +2899,7 @@
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2925,7 +2925,7 @@
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -2951,7 +2951,7 @@
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2977,7 +2977,7 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -3003,7 +3003,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -3029,7 +3029,7 @@
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3055,7 +3055,7 @@
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3081,7 +3081,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3107,7 +3107,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3133,7 +3133,7 @@
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3159,7 +3159,7 @@
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3185,293 +3185,293 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3496,30 +3496,30 @@
       <c r="V33" s="17"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33" t="s">
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33" t="s">
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="41"/>
       <c r="P34" s="18" t="s">
         <v>19</v>
       </c>
@@ -3542,26 +3542,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
+      <c r="E35" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="20">
         <v>3958</v>
       </c>
@@ -3569,51 +3569,51 @@
         <v>3977</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="40">
+      <c r="E36" s="36">
         <v>41991</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="40">
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36">
         <v>41894</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="40">
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="36">
         <v>41938</v>
       </c>
-      <c r="O36" s="40"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="14">
         <v>42008</v>
       </c>
@@ -3636,166 +3636,166 @@
         <v>41960</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="N37" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="O37" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="P37" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="Q37" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="R37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="S37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="T37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="U37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="V37" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="3">
-        <f ca="1">COUNTIF(B$74:B$182,"V") / (COUNTIF(B$74:B$182,"V") + COUNTIF(B$74:B$182,"X"))</f>
+        <f t="shared" ref="B38:V38" ca="1" si="0">COUNTIF(B$74:B$182,"V") / (COUNTIF(B$74:B$182,"V") + COUNTIF(B$74:B$182,"X"))</f>
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <f ca="1">COUNTIF(C$74:C$182,"V") / (COUNTIF(C$74:C$182,"V") + COUNTIF(C$74:C$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <f ca="1">COUNTIF(D$74:D$182,"V") / (COUNTIF(D$74:D$182,"V") + COUNTIF(D$74:D$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <f ca="1">COUNTIF(E$74:E$182,"V") / (COUNTIF(E$74:E$182,"V") + COUNTIF(E$74:E$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="3">
-        <f ca="1">COUNTIF(F$74:F$182,"V") / (COUNTIF(F$74:F$182,"V") + COUNTIF(F$74:F$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <f ca="1">COUNTIF(G$74:G$182,"V") / (COUNTIF(G$74:G$182,"V") + COUNTIF(G$74:G$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <f ca="1">COUNTIF(H$74:H$182,"V") / (COUNTIF(H$74:H$182,"V") + COUNTIF(H$74:H$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <f ca="1">COUNTIF(I$74:I$182,"V") / (COUNTIF(I$74:I$182,"V") + COUNTIF(I$74:I$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f ca="1">COUNTIF(J$74:J$182,"V") / (COUNTIF(J$74:J$182,"V") + COUNTIF(J$74:J$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="K38" s="3">
-        <f ca="1">COUNTIF(K$74:K$182,"V") / (COUNTIF(K$74:K$182,"V") + COUNTIF(K$74:K$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <f ca="1">COUNTIF(L$74:L$182,"V") / (COUNTIF(L$74:L$182,"V") + COUNTIF(L$74:L$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M38" s="3">
-        <f ca="1">COUNTIF(M$74:M$182,"V") / (COUNTIF(M$74:M$182,"V") + COUNTIF(M$74:M$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="N38" s="3">
-        <f ca="1">COUNTIF(N$74:N$182,"V") / (COUNTIF(N$74:N$182,"V") + COUNTIF(N$74:N$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f ca="1">COUNTIF(O$74:O$182,"V") / (COUNTIF(O$74:O$182,"V") + COUNTIF(O$74:O$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f ca="1">COUNTIF(P$74:P$182,"V") / (COUNTIF(P$74:P$182,"V") + COUNTIF(P$74:P$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <f ca="1">COUNTIF(Q$74:Q$182,"V") / (COUNTIF(Q$74:Q$182,"V") + COUNTIF(Q$74:Q$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f ca="1">COUNTIF(R$74:R$182,"V") / (COUNTIF(R$74:R$182,"V") + COUNTIF(R$74:R$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="S38" s="3">
-        <f ca="1">COUNTIF(S$74:S$182,"V") / (COUNTIF(S$74:S$182,"V") + COUNTIF(S$74:S$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f ca="1">COUNTIF(T$74:T$182,"V") / (COUNTIF(T$74:T$182,"V") + COUNTIF(T$74:T$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <f ca="1">COUNTIF(U$74:U$182,"V") / (COUNTIF(U$74:U$182,"V") + COUNTIF(U$74:U$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V38" s="3">
-        <f ca="1">COUNTIF(V$74:V$182,"V") / (COUNTIF(V$74:V$182,"V") + COUNTIF(V$74:V$182,"X"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="e">
         <f>COUNTIF(#REF!,"V") / (COUNTIF(#REF!,"V") + COUNTIF(#REF!,"X"))</f>
@@ -3882,7 +3882,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>23</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>2</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>5</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>7</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4529,7 +4529,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -4553,7 +4553,7 @@
       <c r="U48" s="23"/>
       <c r="V48" s="14"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="17"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -4577,7 +4577,7 @@
       <c r="U53" s="23"/>
       <c r="V53" s="14"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -4601,7 +4601,7 @@
       <c r="U54" s="23"/>
       <c r="V54" s="14"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -4625,7 +4625,7 @@
       <c r="U55" s="23"/>
       <c r="V55" s="14"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -4649,7 +4649,7 @@
       <c r="U56" s="23"/>
       <c r="V56" s="14"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="17"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -4673,7 +4673,7 @@
       <c r="U57" s="23"/>
       <c r="V57" s="14"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="17"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -4697,7 +4697,7 @@
       <c r="U58" s="23"/>
       <c r="V58" s="14"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="17"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -4721,7 +4721,7 @@
       <c r="U59" s="23"/>
       <c r="V59" s="14"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="17"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -4745,7 +4745,7 @@
       <c r="U60" s="23"/>
       <c r="V60" s="14"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="17"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -4769,7 +4769,7 @@
       <c r="U61" s="23"/>
       <c r="V61" s="14"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="17"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -4793,7 +4793,7 @@
       <c r="U62" s="23"/>
       <c r="V62" s="14"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="17"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -4817,7 +4817,7 @@
       <c r="U63" s="23"/>
       <c r="V63" s="14"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="17"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -4841,7 +4841,7 @@
       <c r="U64" s="23"/>
       <c r="V64" s="14"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="17"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -4865,7 +4865,7 @@
       <c r="U65" s="23"/>
       <c r="V65" s="14"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="17"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -4889,111 +4889,111 @@
       <c r="U66" s="23"/>
       <c r="V66" s="14"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A70" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="17"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -5017,55 +5017,55 @@
       <c r="U71" s="23"/>
       <c r="V71" s="14"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
-      <c r="B72" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="B72" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33" t="s">
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O72" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O72" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33" t="s">
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="13">
         <v>5</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="13">
         <v>6</v>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G73" s="13">
         <v>6</v>
@@ -5110,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S73" s="13">
         <v>400</v>
@@ -5122,12 +5122,12 @@
         <v>1000</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>10</v>
@@ -5193,146 +5193,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="T75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U75" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="V75" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U76" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="V76" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R75" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="T75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="U75" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="V75" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="T76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="U76" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="V76" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>46</v>
-      </c>
       <c r="B77" s="7" t="s">
         <v>10</v>
       </c>
@@ -5397,9 +5397,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>10</v>
@@ -5465,153 +5465,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="1">
-        <f ca="1">COUNTIF(B$75:B$182,"V") / (COUNTIF(B$75:B$182,"V") + COUNTIF(B$75:B$182,"X"))</f>
+        <f t="shared" ref="B80:V80" ca="1" si="1">COUNTIF(B$75:B$182,"V") / (COUNTIF(B$75:B$182,"V") + COUNTIF(B$75:B$182,"X"))</f>
         <v>0</v>
       </c>
       <c r="C80" s="1">
-        <f ca="1">COUNTIF(C$75:C$182,"V") / (COUNTIF(C$75:C$182,"V") + COUNTIF(C$75:C$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f ca="1">COUNTIF(D$75:D$182,"V") / (COUNTIF(D$75:D$182,"V") + COUNTIF(D$75:D$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f ca="1">COUNTIF(E$75:E$182,"V") / (COUNTIF(E$75:E$182,"V") + COUNTIF(E$75:E$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f ca="1">COUNTIF(F$75:F$182,"V") / (COUNTIF(F$75:F$182,"V") + COUNTIF(F$75:F$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f ca="1">COUNTIF(G$75:G$182,"V") / (COUNTIF(G$75:G$182,"V") + COUNTIF(G$75:G$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f ca="1">COUNTIF(H$75:H$182,"V") / (COUNTIF(H$75:H$182,"V") + COUNTIF(H$75:H$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f ca="1">COUNTIF(I$75:I$182,"V") / (COUNTIF(I$75:I$182,"V") + COUNTIF(I$75:I$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <f ca="1">COUNTIF(J$75:J$182,"V") / (COUNTIF(J$75:J$182,"V") + COUNTIF(J$75:J$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.2</v>
       </c>
       <c r="K80" s="1">
-        <f ca="1">COUNTIF(K$75:K$182,"V") / (COUNTIF(K$75:K$182,"V") + COUNTIF(K$75:K$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f ca="1">COUNTIF(L$75:L$182,"V") / (COUNTIF(L$75:L$182,"V") + COUNTIF(L$75:L$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.4</v>
       </c>
       <c r="M80" s="1">
-        <f ca="1">COUNTIF(M$75:M$182,"V") / (COUNTIF(M$75:M$182,"V") + COUNTIF(M$75:M$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N80" s="1">
-        <f ca="1">COUNTIF(N$75:N$182,"V") / (COUNTIF(N$75:N$182,"V") + COUNTIF(N$75:N$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O80" s="1">
-        <f ca="1">COUNTIF(O$75:O$182,"V") / (COUNTIF(O$75:O$182,"V") + COUNTIF(O$75:O$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <f ca="1">COUNTIF(P$75:P$182,"V") / (COUNTIF(P$75:P$182,"V") + COUNTIF(P$75:P$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <f ca="1">COUNTIF(Q$75:Q$182,"V") / (COUNTIF(Q$75:Q$182,"V") + COUNTIF(Q$75:Q$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f ca="1">COUNTIF(R$75:R$182,"V") / (COUNTIF(R$75:R$182,"V") + COUNTIF(R$75:R$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.8</v>
       </c>
       <c r="S80" s="1">
-        <f ca="1">COUNTIF(S$75:S$182,"V") / (COUNTIF(S$75:S$182,"V") + COUNTIF(S$75:S$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <f ca="1">COUNTIF(T$75:T$182,"V") / (COUNTIF(T$75:T$182,"V") + COUNTIF(T$75:T$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <f ca="1">COUNTIF(U$75:U$182,"V") / (COUNTIF(U$75:U$182,"V") + COUNTIF(U$75:U$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f ca="1">COUNTIF(V$75:V$182,"V") / (COUNTIF(V$75:V$182,"V") + COUNTIF(V$75:V$182,"X"))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
-      <c r="B82" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33" t="s">
+      <c r="B82" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33" t="s">
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O82" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O82" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33" t="s">
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="13">
         <v>5</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="13">
         <v>6</v>
@@ -5620,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G83" s="13">
         <v>6</v>
@@ -5656,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S83" s="13">
         <v>400</v>
@@ -5668,22 +5668,22 @@
         <v>1000</v>
       </c>
       <c r="V83" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>9</v>
@@ -5749,65 +5749,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
-      <c r="B89" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33" t="s">
+      <c r="B89" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33" t="s">
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O89" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O89" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33" t="s">
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="13">
         <v>5</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D90" s="13">
         <v>6</v>
@@ -5816,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G90" s="13">
         <v>6</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S90" s="13">
         <v>400</v>
@@ -5864,231 +5864,231 @@
         <v>1000</v>
       </c>
       <c r="V90" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A96" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="32"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I101" s="32"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I106" s="32"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="I108" s="32"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I95" s="32"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="I96" s="32"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I99" s="32"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I101" s="32"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="I106" s="32"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="I108" s="32"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A121" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A121" s="27" t="s">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A122" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" s="11"/>
-      <c r="B124" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33" t="s">
+      <c r="B124" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33" t="s">
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O124" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O124" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="33"/>
-      <c r="S124" s="33" t="s">
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T124" s="33"/>
-      <c r="U124" s="33"/>
-      <c r="V124" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="13">
         <v>5</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="13">
         <v>6</v>
@@ -6097,7 +6097,7 @@
         <v>5</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G125" s="13">
         <v>6</v>
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="R125" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S125" s="13">
         <v>400</v>
@@ -6145,315 +6145,315 @@
         <v>1000</v>
       </c>
       <c r="V125" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I147" s="32"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I149" s="32"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A161" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A162" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A163" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I147" s="32"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I149" s="32"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="27" t="s">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A164" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A165" s="27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A163" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A164" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
-        <v>180</v>
-      </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A168" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A169" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A170" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A171" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A172" s="27" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A169" s="27" t="s">
+      <c r="I172" s="32"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A173" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A174" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A170" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A171" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A172" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="I172" s="32"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A173" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A174" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B176" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33" t="s">
+      <c r="B176" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F176" s="41"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I176" s="33"/>
-      <c r="J176" s="33"/>
-      <c r="K176" s="33" t="s">
+      <c r="L176" s="41"/>
+      <c r="M176" s="41"/>
+      <c r="N176" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O176" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L176" s="33"/>
-      <c r="M176" s="33"/>
-      <c r="N176" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O176" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P176" s="33"/>
-      <c r="Q176" s="33"/>
-      <c r="R176" s="33"/>
-      <c r="S176" s="33" t="s">
+      <c r="P176" s="41"/>
+      <c r="Q176" s="41"/>
+      <c r="R176" s="41"/>
+      <c r="S176" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T176" s="41"/>
+      <c r="U176" s="41"/>
+      <c r="V176" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T176" s="33"/>
-      <c r="U176" s="33"/>
-      <c r="V176" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B177" s="13">
         <v>5</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D177" s="13">
         <v>6</v>
@@ -6462,7 +6462,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G177" s="13">
         <v>6</v>
@@ -6498,7 +6498,7 @@
         <v>4</v>
       </c>
       <c r="R177" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S177" s="13">
         <v>400</v>
@@ -6510,12 +6510,12 @@
         <v>1000</v>
       </c>
       <c r="V177" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>10</v>
@@ -6581,9 +6581,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>10</v>
@@ -6649,9 +6649,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A180" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>9</v>
@@ -6717,12 +6717,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A181" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A182" s="31" t="s">
         <v>17</v>
       </c>
@@ -6790,612 +6790,612 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A183" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A188" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A189" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A190" s="27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A192" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>88</v>
       </c>
-      <c r="I195" s="12"/>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>90</v>
-      </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A199" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A200" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V200" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A201" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R201" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V201" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A202" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V202" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A203" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V203" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A204" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L204" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M204" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R204" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V204" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A205" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V205" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A206" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I206" s="32"/>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>150</v>
+      </c>
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>151</v>
+      </c>
+      <c r="I211" s="32"/>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>152</v>
+      </c>
+      <c r="I212" s="32"/>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>153</v>
+      </c>
+      <c r="I213" s="32"/>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A214" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A200" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R200" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V200" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R201" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U201" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V201" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R202" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V202" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A203" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R203" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V203" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L204" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M204" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R204" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V204" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K205" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L205" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M205" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R205" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V205" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A206" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="I206" s="32"/>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>151</v>
-      </c>
-      <c r="I210" s="12"/>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>152</v>
-      </c>
-      <c r="I211" s="32"/>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>153</v>
-      </c>
-      <c r="I212" s="32"/>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>154</v>
-      </c>
-      <c r="I213" s="32"/>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A214" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B217" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33" t="s">
+      <c r="B217" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F217" s="41"/>
+      <c r="G217" s="41"/>
+      <c r="H217" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I217" s="41"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I217" s="33"/>
-      <c r="J217" s="33"/>
-      <c r="K217" s="33" t="s">
+      <c r="L217" s="41"/>
+      <c r="M217" s="41"/>
+      <c r="N217" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O217" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L217" s="33"/>
-      <c r="M217" s="33"/>
-      <c r="N217" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O217" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P217" s="33"/>
-      <c r="Q217" s="33"/>
-      <c r="R217" s="33"/>
-      <c r="S217" s="33" t="s">
+      <c r="P217" s="41"/>
+      <c r="Q217" s="41"/>
+      <c r="R217" s="41"/>
+      <c r="S217" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T217" s="41"/>
+      <c r="U217" s="41"/>
+      <c r="V217" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T217" s="33"/>
-      <c r="U217" s="33"/>
-      <c r="V217" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A218" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="13">
         <v>5</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D218" s="13">
         <v>6</v>
@@ -7404,7 +7404,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G218" s="13">
         <v>6</v>
@@ -7440,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="R218" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S218" s="13">
         <v>400</v>
@@ -7452,12 +7452,12 @@
         <v>1000</v>
       </c>
       <c r="V218" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>10</v>
@@ -7523,71 +7523,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A220" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B223" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33" t="s">
+      <c r="B223" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F223" s="41"/>
+      <c r="G223" s="41"/>
+      <c r="H223" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I223" s="41"/>
+      <c r="J223" s="41"/>
+      <c r="K223" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I223" s="33"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="33" t="s">
+      <c r="L223" s="41"/>
+      <c r="M223" s="41"/>
+      <c r="N223" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O223" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L223" s="33"/>
-      <c r="M223" s="33"/>
-      <c r="N223" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O223" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P223" s="33"/>
-      <c r="Q223" s="33"/>
-      <c r="R223" s="33"/>
-      <c r="S223" s="33" t="s">
+      <c r="P223" s="41"/>
+      <c r="Q223" s="41"/>
+      <c r="R223" s="41"/>
+      <c r="S223" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T223" s="41"/>
+      <c r="U223" s="41"/>
+      <c r="V223" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T223" s="33"/>
-      <c r="U223" s="33"/>
-      <c r="V223" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B224" s="13">
         <v>5</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D224" s="13">
         <v>6</v>
@@ -7596,7 +7596,7 @@
         <v>5</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G224" s="13">
         <v>6</v>
@@ -7632,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="R224" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S224" s="13">
         <v>400</v>
@@ -7644,12 +7644,12 @@
         <v>1000</v>
       </c>
       <c r="V224" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>10</v>
@@ -7715,9 +7715,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B226" s="30" t="s">
         <v>9</v>
@@ -7783,9 +7783,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A227" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" s="30" t="s">
         <v>9</v>
@@ -7851,9 +7851,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>9</v>
@@ -7919,9 +7919,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A229" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>10</v>
@@ -7987,9 +7987,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A230" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>10</v>
@@ -8055,146 +8055,146 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A231" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R231" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V231" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A232" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R231" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V231" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A232" s="27" t="s">
+      <c r="B232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O232" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V232" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A233" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O232" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U232" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V232" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A233" s="27" t="s">
-        <v>105</v>
-      </c>
       <c r="B233" s="6" t="s">
         <v>10</v>
       </c>
@@ -8259,69 +8259,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A235" s="27" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A235" s="27" t="s">
-        <v>240</v>
-      </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A236" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A237" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A239" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A240" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A241" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I241" s="32"/>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A242" s="27" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A239" s="27" t="s">
+      <c r="I242" s="32"/>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A243" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A244" s="27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A240" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A241" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="I241" s="32"/>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A242" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I242" s="32"/>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A243" s="27" t="s">
+      <c r="I244" s="32"/>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A245" s="27" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A244" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I244" s="32"/>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A245" s="27" t="s">
-        <v>227</v>
-      </c>
       <c r="B245" s="6" t="s">
         <v>10</v>
       </c>
@@ -8386,131 +8386,131 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A246" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A248" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A250" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A251" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A252" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A253" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A254" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A255" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A256" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A257" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A258" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A259" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A260" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B260" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C260" s="33"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="33" t="s">
+      <c r="B260" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C260" s="41"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F260" s="41"/>
+      <c r="G260" s="41"/>
+      <c r="H260" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I260" s="41"/>
+      <c r="J260" s="41"/>
+      <c r="K260" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I260" s="33"/>
-      <c r="J260" s="33"/>
-      <c r="K260" s="33" t="s">
+      <c r="L260" s="41"/>
+      <c r="M260" s="41"/>
+      <c r="N260" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O260" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="L260" s="33"/>
-      <c r="M260" s="33"/>
-      <c r="N260" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O260" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="P260" s="33"/>
-      <c r="Q260" s="33"/>
-      <c r="R260" s="33"/>
-      <c r="S260" s="33" t="s">
+      <c r="P260" s="41"/>
+      <c r="Q260" s="41"/>
+      <c r="R260" s="41"/>
+      <c r="S260" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="T260" s="41"/>
+      <c r="U260" s="41"/>
+      <c r="V260" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="T260" s="33"/>
-      <c r="U260" s="33"/>
-      <c r="V260" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A261" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B261" s="13">
         <v>5</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D261" s="13">
         <v>6</v>
@@ -8519,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G261" s="13">
         <v>6</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="R261" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S261" s="13">
         <v>400</v>
@@ -8567,12 +8567,12 @@
         <v>1000</v>
       </c>
       <c r="V261" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B262" s="30" t="s">
         <v>9</v>
@@ -8638,690 +8638,690 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A263" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U263" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V263" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A264" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R263" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U263" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V263" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A264" s="27" t="s">
+      <c r="B264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N264" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O264" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P264" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q264" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R264" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V264" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A265" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N264" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O264" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P264" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q264" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R264" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V264" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A265" s="27" t="s">
+      <c r="B265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N265" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U265" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V265" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A266" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N265" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="U265" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V265" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A266" s="27" t="s">
+      <c r="B266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R266" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V266" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A267" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R266" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V266" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A267" s="27" t="s">
+      <c r="B267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U267" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V267" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A268" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U267" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V267" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A268" s="27" t="s">
+      <c r="B268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U268" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V268" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A269" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="O268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="U268" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V268" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A269" s="27" t="s">
+      <c r="B269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R269" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V269" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A270" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R269" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V269" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="27" t="s">
+      <c r="B270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R270" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V270" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A271" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R270" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V270" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="27" t="s">
+      <c r="B271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V271" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A272" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V271" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="27" t="s">
+      <c r="B272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U272" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V272" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A273" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U272" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V272" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A273" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="B273" s="30" t="s">
         <v>9</v>
       </c>
@@ -9386,423 +9386,423 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U275" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V275" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A276" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="O275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="U275" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V275" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A276" s="27" t="s">
+      <c r="B276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V276" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A277" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M276" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V276" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A277" s="27" t="s">
+      <c r="B277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U277" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V277" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A278" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="O277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="U277" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V277" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A278" s="27" t="s">
+      <c r="B278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R278" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V278" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A279" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R278" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U278" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V278" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A279" s="27" t="s">
+      <c r="B279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R279" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V279" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A280" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R279" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V279" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A280" s="27" t="s">
+      <c r="B280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L280" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M280" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R280" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V280" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A281" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L280" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M280" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R280" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V280" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A281" s="27" t="s">
-        <v>90</v>
-      </c>
       <c r="B281" s="6" t="s">
         <v>10</v>
       </c>
@@ -9867,9 +9867,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>9</v>
@@ -9935,9 +9935,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B283" s="30" t="s">
         <v>9</v>
@@ -10003,96 +10003,96 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B284" s="45">
-        <f ca="1">COUNTIF(B$75:B$281,"V") / (COUNTIF(B$76:B$281,"V") + COUNTIF(B$75:B$281,"X"))</f>
+      <c r="B284" s="33">
+        <f t="shared" ref="B284:V284" ca="1" si="2">COUNTIF(B$75:B$281,"V") / (COUNTIF(B$76:B$281,"V") + COUNTIF(B$75:B$281,"X"))</f>
         <v>0.5</v>
       </c>
-      <c r="C284" s="45">
-        <f ca="1">COUNTIF(C$75:C$281,"V") / (COUNTIF(C$76:C$281,"V") + COUNTIF(C$75:C$281,"X"))</f>
+      <c r="C284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="D284" s="45">
-        <f ca="1">COUNTIF(D$75:D$281,"V") / (COUNTIF(D$76:D$281,"V") + COUNTIF(D$75:D$281,"X"))</f>
+      <c r="D284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="E284" s="45">
-        <f ca="1">COUNTIF(E$75:E$281,"V") / (COUNTIF(E$76:E$281,"V") + COUNTIF(E$75:E$281,"X"))</f>
+      <c r="E284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="F284" s="45">
-        <f ca="1">COUNTIF(F$75:F$281,"V") / (COUNTIF(F$76:F$281,"V") + COUNTIF(F$75:F$281,"X"))</f>
+      <c r="F284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="G284" s="45">
-        <f ca="1">COUNTIF(G$75:G$281,"V") / (COUNTIF(G$76:G$281,"V") + COUNTIF(G$75:G$281,"X"))</f>
+      <c r="G284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="H284" s="45">
-        <f ca="1">COUNTIF(H$75:H$281,"V") / (COUNTIF(H$76:H$281,"V") + COUNTIF(H$75:H$281,"X"))</f>
+      <c r="H284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I284" s="45">
-        <f ca="1">COUNTIF(I$75:I$281,"V") / (COUNTIF(I$76:I$281,"V") + COUNTIF(I$75:I$281,"X"))</f>
+      <c r="I284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.54761904761904767</v>
       </c>
-      <c r="J284" s="45">
-        <f ca="1">COUNTIF(J$75:J$281,"V") / (COUNTIF(J$76:J$281,"V") + COUNTIF(J$75:J$281,"X"))</f>
+      <c r="J284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K284" s="45">
-        <f ca="1">COUNTIF(K$75:K$281,"V") / (COUNTIF(K$76:K$281,"V") + COUNTIF(K$75:K$281,"X"))</f>
+      <c r="K284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.38095238095238093</v>
       </c>
-      <c r="L284" s="45">
-        <f ca="1">COUNTIF(L$75:L$281,"V") / (COUNTIF(L$76:L$281,"V") + COUNTIF(L$75:L$281,"X"))</f>
+      <c r="L284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="M284" s="45">
-        <f ca="1">COUNTIF(M$75:M$281,"V") / (COUNTIF(M$76:M$281,"V") + COUNTIF(M$75:M$281,"X"))</f>
+      <c r="M284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="N284" s="45">
-        <f ca="1">COUNTIF(N$75:N$281,"V") / (COUNTIF(N$76:N$281,"V") + COUNTIF(N$75:N$281,"X"))</f>
+      <c r="N284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="O284" s="45">
-        <f ca="1">COUNTIF(O$75:O$281,"V") / (COUNTIF(O$76:O$281,"V") + COUNTIF(O$75:O$281,"X"))</f>
+      <c r="O284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P284" s="45">
-        <f ca="1">COUNTIF(P$75:P$281,"V") / (COUNTIF(P$76:P$281,"V") + COUNTIF(P$75:P$281,"X"))</f>
+      <c r="P284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.40476190476190477</v>
       </c>
-      <c r="Q284" s="45">
-        <f ca="1">COUNTIF(Q$75:Q$281,"V") / (COUNTIF(Q$76:Q$281,"V") + COUNTIF(Q$75:Q$281,"X"))</f>
+      <c r="Q284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.47619047619047616</v>
       </c>
-      <c r="R284" s="45">
-        <f ca="1">COUNTIF(R$75:R$281,"V") / (COUNTIF(R$76:R$281,"V") + COUNTIF(R$75:R$281,"X"))</f>
+      <c r="R284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.85365853658536583</v>
       </c>
-      <c r="S284" s="45">
-        <f ca="1">COUNTIF(S$75:S$281,"V") / (COUNTIF(S$76:S$281,"V") + COUNTIF(S$75:S$281,"X"))</f>
+      <c r="S284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.30952380952380953</v>
       </c>
-      <c r="T284" s="45">
-        <f ca="1">COUNTIF(T$75:T$281,"V") / (COUNTIF(T$76:T$281,"V") + COUNTIF(T$75:T$281,"X"))</f>
+      <c r="T284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.30952380952380953</v>
       </c>
-      <c r="U284" s="45">
-        <f ca="1">COUNTIF(U$75:U$281,"V") / (COUNTIF(U$76:U$281,"V") + COUNTIF(U$75:U$281,"X"))</f>
+      <c r="U284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="V284" s="45">
-        <f ca="1">COUNTIF(V$75:V$281,"V") / (COUNTIF(V$76:V$281,"V") + COUNTIF(V$75:V$281,"X"))</f>
+      <c r="V284" s="33">
+        <f t="shared" ca="1" si="2"/>
         <v>0.73809523809523814</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285" s="10"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -10117,7 +10117,7 @@
       <c r="V285" s="26"/>
       <c r="W285" s="26"/>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286" s="26"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -10142,7 +10142,7 @@
       <c r="V286" s="26"/>
       <c r="W286" s="26"/>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287" s="26"/>
       <c r="B287" s="26"/>
       <c r="C287" s="26"/>
@@ -10169,6 +10169,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="O124:R124"/>
+    <mergeCell ref="S124:U124"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="K176:M176"/>
+    <mergeCell ref="E217:G217"/>
+    <mergeCell ref="H217:J217"/>
+    <mergeCell ref="K217:M217"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="K260:M260"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="O260:R260"/>
+    <mergeCell ref="S260:U260"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="O217:R217"/>
+    <mergeCell ref="S217:U217"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="K223:M223"/>
+    <mergeCell ref="O223:R223"/>
+    <mergeCell ref="S223:U223"/>
+    <mergeCell ref="O176:R176"/>
+    <mergeCell ref="S176:U176"/>
+    <mergeCell ref="A28:V28"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="A31:V31"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="A24:V24"/>
     <mergeCell ref="A70:V70"/>
     <mergeCell ref="A25:V25"/>
     <mergeCell ref="E36:H36"/>
@@ -10185,64 +10243,6 @@
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="A26:V26"/>
     <mergeCell ref="A27:V27"/>
-    <mergeCell ref="A28:V28"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="A31:V31"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="A24:V24"/>
-    <mergeCell ref="O260:R260"/>
-    <mergeCell ref="S260:U260"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="O217:R217"/>
-    <mergeCell ref="S217:U217"/>
-    <mergeCell ref="E223:G223"/>
-    <mergeCell ref="H223:J223"/>
-    <mergeCell ref="K223:M223"/>
-    <mergeCell ref="O223:R223"/>
-    <mergeCell ref="S223:U223"/>
-    <mergeCell ref="O176:R176"/>
-    <mergeCell ref="S176:U176"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="H176:J176"/>
-    <mergeCell ref="K176:M176"/>
-    <mergeCell ref="E217:G217"/>
-    <mergeCell ref="H217:J217"/>
-    <mergeCell ref="K217:M217"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="H260:J260"/>
-    <mergeCell ref="K260:M260"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="O124:R124"/>
-    <mergeCell ref="S124:U124"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="http://www.g-truc.net"/>
